--- a/Resource/SampleData-Budget.xlsx
+++ b/Resource/SampleData-Budget.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\KSP-MIS\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{940BD954-358F-48DA-A822-454E7ACA310F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0D04CC-CE70-4847-BFAB-D15475B67FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{B7AE20CA-E00A-4199-81A2-4886A881BBBF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{B7AE20CA-E00A-4199-81A2-4886A881BBBF}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
-    <sheet name="11" sheetId="2" r:id="rId2"/>
+    <sheet name="11-12" sheetId="2" r:id="rId2"/>
+    <sheet name="14" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01'!$C$1:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'14'!$B$1:$B$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
   <si>
     <t>แผนงานบุคคลภาครัฐ</t>
   </si>
@@ -209,6 +211,42 @@
   </si>
   <si>
     <t>ทุน</t>
+  </si>
+  <si>
+    <t>งบบุคคลากร</t>
+  </si>
+  <si>
+    <t>งบดำเนินงาน</t>
+  </si>
+  <si>
+    <t>งบลงทุน</t>
+  </si>
+  <si>
+    <t>งบเงินอุดหนุน</t>
+  </si>
+  <si>
+    <t>งบรายจ่ายอื่น</t>
+  </si>
+  <si>
+    <t>งบประมาณ</t>
+  </si>
+  <si>
+    <t>โอนเปลี่ยนแปลง</t>
+  </si>
+  <si>
+    <t>รวมงบสุทธิ</t>
+  </si>
+  <si>
+    <t>การสำรองเงิน</t>
+  </si>
+  <si>
+    <t>ใบสั่งซื้อสัญญา</t>
+  </si>
+  <si>
+    <t>เบิกจ่าย</t>
+  </si>
+  <si>
+    <t>คงเหลือ</t>
   </si>
 </sst>
 </file>
@@ -230,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +278,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -265,6 +327,22 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,7 +660,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -947,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16376D85-5C8F-43BD-8195-77433ACF32A8}">
   <dimension ref="A2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1337,4 +1415,708 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A84B46-38DC-41BD-862A-039C5E2D22C4}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="51.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.46484375" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.86328125" customWidth="1"/>
+    <col min="12" max="12" width="17.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="5">
+        <v>40000000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C2+D2</f>
+        <v>50000000</v>
+      </c>
+      <c r="F2" s="9">
+        <f>E2*8/10</f>
+        <v>40000000</v>
+      </c>
+      <c r="G2" s="9">
+        <f>C2*97/100</f>
+        <v>38800000</v>
+      </c>
+      <c r="H2" s="9">
+        <f>G2*3/5</f>
+        <v>23280000</v>
+      </c>
+      <c r="I2" s="7">
+        <f>E2-H2</f>
+        <v>26720000</v>
+      </c>
+      <c r="K2">
+        <f>H2/1000000</f>
+        <v>23.28</v>
+      </c>
+      <c r="L2">
+        <f>I2/1000000</f>
+        <v>26.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="5">
+        <v>15000000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>500000</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E16" si="0">C3+D3</f>
+        <v>15500000</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:F16" si="1">C3/10</f>
+        <v>1500000</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G16" si="2">C3*97/100</f>
+        <v>14550000</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3:H16" si="3">G3*3/5</f>
+        <v>8730000</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" ref="I3:I16" si="4">E3-H3</f>
+        <v>6770000</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K16" si="5">H3/1000000</f>
+        <v>8.73</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L16" si="6">I3/1000000</f>
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="5">
+        <v>60000000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>17263716</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="0"/>
+        <v>77263716</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="1"/>
+        <v>6000000</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" si="2"/>
+        <v>58200000</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="3"/>
+        <v>34920000</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="4"/>
+        <v>42343716</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>34.92</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="6"/>
+        <v>42.343716000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>23879812</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>43879812</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="1"/>
+        <v>2000000</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="2"/>
+        <v>19400000</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="3"/>
+        <v>11640000</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="4"/>
+        <v>32239812</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>11.64</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="6"/>
+        <v>32.239812000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="5">
+        <v>30000000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4048287</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>34048287</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="1"/>
+        <v>3000000</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="2"/>
+        <v>29100000</v>
+      </c>
+      <c r="H6" s="9">
+        <f>G6*4/5</f>
+        <v>23280000</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="4"/>
+        <v>10768287</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>23.28</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>10.768287000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5">
+        <v>289743827</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-38794228</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>250949599</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="1"/>
+        <v>28974382.699999999</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="2"/>
+        <v>281051512.19</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="3"/>
+        <v>168630907.31399998</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="4"/>
+        <v>82318691.686000019</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>168.63090731399998</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>82.318691686000022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="5">
+        <v>98733283</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-23874887</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>74858396</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="1"/>
+        <v>9873328.3000000007</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="2"/>
+        <v>95771284.510000005</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="3"/>
+        <v>57462770.706000008</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="4"/>
+        <v>17395625.293999992</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>57.462770706000008</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>17.395625293999991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1347828733</v>
+      </c>
+      <c r="D9" s="5">
+        <v>-89327423</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>1258501310</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="1"/>
+        <v>134782873.30000001</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="2"/>
+        <v>1307393871.01</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="3"/>
+        <v>784436322.60599995</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="4"/>
+        <v>474064987.39400005</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>784.43632260599998</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>474.06498739400007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="5">
+        <v>87984739</v>
+      </c>
+      <c r="D10" s="5">
+        <v>9349893</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>97334632</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="1"/>
+        <v>8798473.9000000004</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="2"/>
+        <v>85345196.829999998</v>
+      </c>
+      <c r="H10" s="9">
+        <f>G10*4/5</f>
+        <v>68276157.464000002</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="4"/>
+        <v>29058474.535999998</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>68.276157464000008</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="6"/>
+        <v>29.058474535999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="5">
+        <v>39234782</v>
+      </c>
+      <c r="D11" s="5">
+        <v>7384293</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>46619075</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="1"/>
+        <v>3923478.2</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="2"/>
+        <v>38057738.539999999</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="3"/>
+        <v>22834643.124000002</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="4"/>
+        <v>23784431.875999998</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>22.834643124000003</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="6"/>
+        <v>23.784431875999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="5">
+        <v>203487987</v>
+      </c>
+      <c r="D12" s="5">
+        <v>10902833</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>214390820</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="1"/>
+        <v>20348798.699999999</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="2"/>
+        <v>197383347.38999999</v>
+      </c>
+      <c r="H12" s="9">
+        <f>G12*4/5</f>
+        <v>157906677.912</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="4"/>
+        <v>56484142.088</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>157.90667791199999</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="6"/>
+        <v>56.484142087999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="5">
+        <v>239127323</v>
+      </c>
+      <c r="D13" s="5">
+        <v>47298374</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>286425697</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="1"/>
+        <v>23912732.300000001</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="2"/>
+        <v>231953503.31</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="3"/>
+        <v>139172101.986</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="4"/>
+        <v>147253595.014</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>139.172101986</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>147.25359501400001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1987928434</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-3932948</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>1983995486</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="1"/>
+        <v>198792843.40000001</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="2"/>
+        <v>1928290580.98</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="3"/>
+        <v>1156974348.5880001</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="4"/>
+        <v>827021137.41199994</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>1156.9743485880001</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="6"/>
+        <v>827.02113741199992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="5">
+        <v>98723947</v>
+      </c>
+      <c r="D15" s="5">
+        <v>54397345</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>153121292</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="1"/>
+        <v>9872394.6999999993</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="2"/>
+        <v>95762228.590000004</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="3"/>
+        <v>57457337.153999999</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="4"/>
+        <v>95663954.846000001</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>57.457337154000001</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="6"/>
+        <v>95.663954845999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="5">
+        <v>39847233</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>39847233</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="1"/>
+        <v>3984723.3</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="2"/>
+        <v>38651816.009999998</v>
+      </c>
+      <c r="H16" s="9">
+        <f>G16</f>
+        <v>38651816.009999998</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="4"/>
+        <v>1195416.9900000021</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>38.651816009999997</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>1.195416990000002</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="D17">
+        <f>SUBTOTAL(9,D5:D16)</f>
+        <v>11432580</v>
+      </c>
+      <c r="E17" s="8">
+        <f>D17/1000000</f>
+        <v>11.43258</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C18">
+        <f>SUBTOTAL(9,C6:C17)</f>
+        <v>109082015</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B17" xr:uid="{C907DCBD-8DF3-4787-870E-D83EC8DD2C70}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="งบรายจ่ายอื่น"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>